--- a/biology/Botanique/Lathyrus_linifolius/Lathyrus_linifolius.xlsx
+++ b/biology/Botanique/Lathyrus_linifolius/Lathyrus_linifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gesse à feuilles de lin (Lathyrus linifolius) est une espèce de plantes herbacées de la famille des Fabaceae. Ses propriétés coupe-faim ont été utilisées dès le Moyen Âge.
 </t>
@@ -511,11 +523,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique : Lathyrus linifolius (Reichard) Bässler, 1971[1]
-Nom normalisé, recommandé ou typique : Gesse à feuilles de lin[1]
-Nom vernaculaire (langage courant), pouvant désigner aussi d'autres espèces : en anglais Bitter-vetch[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique : Lathyrus linifolius (Reichard) Bässler, 1971
+Nom normalisé, recommandé ou typique : Gesse à feuilles de lin
+Nom vernaculaire (langage courant), pouvant désigner aussi d'autres espèces : en anglais Bitter-vetch.</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante médicinale utilisée dans les Highlands au Moyen Âge comme coupe-faim : l'ingestion de tubercules de Lathyrus linifolius aurait permis de stopper la sensation de faim et de soif[2],[3]. Certains herbaux médiévaux ont affirmé que cet effet pouvait durer des jours, voire des semaines.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante médicinale utilisée dans les Highlands au Moyen Âge comme coupe-faim : l'ingestion de tubercules de Lathyrus linifolius aurait permis de stopper la sensation de faim et de soif,. Certains herbaux médiévaux ont affirmé que cet effet pouvait durer des jours, voire des semaines.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tela Botanica (France métro)    (20 mai 2013)[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tela Botanica (France métro)    (20 mai 2013)
 variété Lathyrus linifolius var. linifolius
 variété Lathyrus linifolius var. montanus (Bernh.) Bassler - Gesse des montagnes</t>
         </is>
